--- a/static/excel/basic.xlsx
+++ b/static/excel/basic.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\workspace\management\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redukyo/workspace/management3/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="28800" windowHeight="13935" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100"/>
   </bookViews>
   <sheets>
     <sheet name="user_count" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
     <sheet name="course_age" sheetId="4" r:id="rId4"/>
     <sheet name="course_edu" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,9 +115,6 @@
     <t>60대 이상</t>
   </si>
   <si>
-    <t>&lt;나이별 학력&gt;</t>
-  </si>
-  <si>
     <t>미입력</t>
   </si>
   <si>
@@ -169,6 +174,10 @@
   </si>
   <si>
     <t>기관별 강좌 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;연령별 학력&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -226,55 +235,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -282,23 +291,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -306,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -318,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,12 +360,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,9 +374,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,483 +671,485 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="15.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
-    <col min="6" max="12" width="15.625" style="13" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="5" customWidth="1"/>
+    <col min="6" max="12" width="15.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="10" t="s">
+    <row r="2" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="9" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>10</v>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:E17" si="0">SUM(C9:D9)</f>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E14" si="0">SUM(C9:D9)</f>
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="8">
-        <f t="shared" ref="H9:H17" si="1">SUM(F9:G9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>11</v>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H14" si="1">SUM(F9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>12</v>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>13</v>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>14</v>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>15</v>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8">
-        <f t="shared" ref="C18:H18" si="2">SUM(C9:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:H15" si="2">SUM(C9:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:E28" si="3">SUM(C20:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="7">
+        <f t="shared" ref="H20:H28" si="4">SUM(F20:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="8">
-        <f t="shared" ref="E23:E28" si="3">SUM(C23:D23)</f>
+      <c r="E23" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="8">
-        <f t="shared" ref="H23:H28" si="4">SUM(F23:G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>22</v>
+      <c r="H23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>23</v>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="8">
-        <f t="shared" si="3"/>
+      <c r="E25" s="7">
+        <f>SUM(C25:D25)</f>
         <v>0</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>24</v>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>25</v>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>26</v>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="8">
-        <f t="shared" ref="C29:H29" si="5">SUM(C22:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29" s="7">
+        <f t="shared" ref="C29:H29" si="5">SUM(C20:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H29" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>27</v>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1142,58 +1162,58 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="9" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+      <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="9" t="s">
+      <c r="K33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="1"/>
@@ -1205,13 +1225,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="8">
-        <f t="shared" ref="L34:L40" si="6">SUM(C34:K34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+      <c r="L34" s="7">
+        <f t="shared" ref="L34:L39" si="6">SUM(C34:K34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="1"/>
@@ -1223,13 +1243,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="8">
+      <c r="L35" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="1"/>
@@ -1241,13 +1261,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="1"/>
@@ -1259,13 +1279,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="8">
+      <c r="L37" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="1"/>
@@ -1277,13 +1297,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="1"/>
@@ -1295,68 +1315,67 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="8">
+      <c r="L39" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <f t="shared" ref="C40:K40" si="7">SUM(C34:C39)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L40" s="8">
-        <f t="shared" si="6"/>
+      <c r="L40" s="7">
+        <f t="shared" ref="L40" si="8">SUM(C40:K40)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,394 +1387,395 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="7" customWidth="1"/>
-    <col min="3" max="4" width="20" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="20" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="5" customWidth="1"/>
+    <col min="9" max="57" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="G3"/>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="G41"/>
@@ -1772,323 +1792,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="7" customWidth="1"/>
-    <col min="3" max="4" width="20" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="20" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20" style="5" customWidth="1"/>
+    <col min="8" max="54" width="13.33203125" style="5" customWidth="1"/>
+    <col min="55" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2101,57 +2120,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20" style="6" customWidth="1"/>
-    <col min="5" max="10" width="9.875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="54.25" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20" style="5" customWidth="1"/>
+    <col min="5" max="10" width="9.83203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="54.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="D3"/>
@@ -2163,7 +2182,7 @@
       <c r="J3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="D4"/>
@@ -2175,7 +2194,7 @@
       <c r="J4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="D5"/>
@@ -2187,7 +2206,7 @@
       <c r="J5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="D6"/>
@@ -2199,7 +2218,7 @@
       <c r="J6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="D7"/>
@@ -2211,7 +2230,7 @@
       <c r="J7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="D8"/>
@@ -2223,7 +2242,7 @@
       <c r="J8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="D9"/>
@@ -2235,7 +2254,7 @@
       <c r="J9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10"/>
@@ -2247,7 +2266,7 @@
       <c r="J10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11"/>
@@ -2259,7 +2278,7 @@
       <c r="J11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12"/>
@@ -2271,7 +2290,7 @@
       <c r="J12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13"/>
@@ -2283,7 +2302,7 @@
       <c r="J13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14"/>
@@ -2295,7 +2314,7 @@
       <c r="J14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15"/>
@@ -2307,7 +2326,7 @@
       <c r="J15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16"/>
@@ -2319,7 +2338,7 @@
       <c r="J16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="D17"/>
@@ -2331,7 +2350,7 @@
       <c r="J17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18"/>
@@ -2343,7 +2362,7 @@
       <c r="J18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="D19"/>
@@ -2355,7 +2374,7 @@
       <c r="J19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="D20"/>
@@ -2367,7 +2386,7 @@
       <c r="J20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21"/>
@@ -2379,7 +2398,7 @@
       <c r="J21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="D22"/>
@@ -2391,7 +2410,7 @@
       <c r="J22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="D23"/>
@@ -2403,7 +2422,7 @@
       <c r="J23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="D24"/>
@@ -2415,7 +2434,7 @@
       <c r="J24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="D25"/>
@@ -2427,7 +2446,7 @@
       <c r="J25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="D26"/>
@@ -2439,7 +2458,7 @@
       <c r="J26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27"/>
@@ -2451,7 +2470,7 @@
       <c r="J27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28"/>
@@ -2463,7 +2482,7 @@
       <c r="J28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29"/>
@@ -2475,7 +2494,7 @@
       <c r="J29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -2486,7 +2505,7 @@
       <c r="J30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -2497,7 +2516,7 @@
       <c r="J31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -2508,7 +2527,7 @@
       <c r="J32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -2519,7 +2538,7 @@
       <c r="J33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -2530,7 +2549,7 @@
       <c r="J34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -2541,7 +2560,7 @@
       <c r="J35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -2552,7 +2571,7 @@
       <c r="J36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -2563,7 +2582,7 @@
       <c r="J37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -2574,7 +2593,7 @@
       <c r="J38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -2585,7 +2604,7 @@
       <c r="J39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -2596,7 +2615,7 @@
       <c r="J40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -2618,72 +2637,72 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20" style="6" customWidth="1"/>
-    <col min="5" max="7" width="5.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="13" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="13" customWidth="1"/>
-    <col min="15" max="15" width="53" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20" style="5" customWidth="1"/>
+    <col min="5" max="7" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="5" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="12" customWidth="1"/>
+    <col min="15" max="15" width="53" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -2698,7 +2717,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -2713,7 +2732,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -2728,7 +2747,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -2743,7 +2762,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -2758,7 +2777,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -2773,7 +2792,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -2788,7 +2807,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2803,7 +2822,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -2818,7 +2837,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -2833,7 +2852,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -2848,7 +2867,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -2863,7 +2882,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -2878,7 +2897,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -2893,7 +2912,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -2908,7 +2927,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -2923,7 +2942,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -2938,7 +2957,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -2953,7 +2972,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -2968,7 +2987,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -2983,7 +3002,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2998,7 +3017,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -3013,7 +3032,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -3028,7 +3047,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -3043,7 +3062,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -3058,7 +3077,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -3073,7 +3092,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -3088,8 +3107,8 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -3103,8 +3122,8 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -3118,8 +3137,8 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -3133,8 +3152,8 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -3148,8 +3167,8 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -3163,8 +3182,8 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -3178,8 +3197,8 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -3193,8 +3212,8 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -3208,8 +3227,8 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -3223,8 +3242,8 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
@@ -3238,8 +3257,8 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -3253,8 +3272,8 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>

--- a/static/excel/basic.xlsx
+++ b/static/excel/basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100"/>
   </bookViews>
   <sheets>
     <sheet name="user_count" sheetId="1" r:id="rId1"/>
@@ -359,20 +359,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,8 +380,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +672,7 @@
   <dimension ref="B2:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -683,14 +683,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -727,17 +727,17 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="6"/>
       <c r="I5" s="6"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5"/>
@@ -747,25 +747,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="5"/>
@@ -927,22 +927,22 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="17" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="8" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1129,10 @@
         <f t="shared" ref="C29:H29" si="5">SUM(C20:C28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E29" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1148,7 +1151,7 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2"/>
@@ -1163,7 +1166,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -1180,7 +1183,7 @@
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
@@ -1367,6 +1370,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B18:B19"/>
@@ -1375,7 +1379,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1388,7 +1391,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1408,23 +1411,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1793,7 +1796,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1813,23 +1816,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>29</v>
       </c>
     </row>

--- a/static/excel/basic.xlsx
+++ b/static/excel/basic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100"/>
+    <workbookView xWindow="2880" yWindow="3400" windowWidth="29800" windowHeight="16780"/>
   </bookViews>
   <sheets>
     <sheet name="user_count" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -353,9 +353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -683,14 +680,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -727,17 +724,17 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="6"/>
       <c r="I5" s="6"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5"/>
@@ -747,25 +744,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -917,7 +914,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="5"/>
@@ -927,22 +924,22 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="8" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1148,7 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2"/>
@@ -1166,24 +1163,24 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
@@ -1369,8 +1366,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:L32"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B18:B19"/>
@@ -1391,7 +1389,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1412,22 +1410,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1817,22 +1815,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
     </row>
